--- a/reference.xlsx
+++ b/reference.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yihan/CityU/paper/ADS survey/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yihan/CityU/paper/ADS survey/Survey Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6E86DB-0441-214C-8EE6-8E814EFDA050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F5A0D1-9C1D-4947-9F1E-67EA9149A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="5040" windowWidth="22820" windowHeight="21920" xr2:uid="{4EB38562-4AD3-414B-B565-D46A62DE711F}"/>
+    <workbookView xWindow="10640" yWindow="7180" windowWidth="23380" windowHeight="21920" xr2:uid="{4EB38562-4AD3-414B-B565-D46A62DE711F}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
     <sheet name="Category" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">References!$A$1:$C$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">References!$A$1:$C$105</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="165">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,14 +597,6 @@
   </si>
   <si>
     <t>Springer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Virtual test drive-provision of a consistent tool-set for [d, h, s, v]-in-the-loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Driving Simulation Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,9 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,11 +1134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B378CB6-6739-194E-9DD0-B01C4FE533FC}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1249,7 +1238,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -1603,7 +1592,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17">
@@ -1665,10 +1654,10 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1808,8 +1797,8 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>164</v>
+      <c r="B61" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -1938,7 +1927,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>54</v>
@@ -2011,11 +2000,11 @@
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>141</v>
+      <c r="B80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17">
@@ -2023,7 +2012,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2034,21 +2023,21 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17">
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>32</v>
+      <c r="B83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17">
@@ -2056,18 +2045,18 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="34">
@@ -2075,21 +2064,18 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="34">
+    <row r="87" spans="1:3" ht="17">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17">
@@ -2097,7 +2083,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17">
@@ -2105,10 +2094,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17">
@@ -2116,10 +2105,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17">
@@ -2127,98 +2116,98 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="34">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17">
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>101</v>
+      <c r="B94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17">
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17">
+      <c r="B95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="34">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17">
       <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="34">
       <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17">
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>84</v>
+      <c r="B99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17">
@@ -2226,43 +2215,43 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="34">
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="34">
+      <c r="B101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17">
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>19</v>
+      <c r="B103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17">
@@ -2270,7 +2259,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -2281,25 +2270,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17">
-      <c r="A106" s="3">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C106" xr:uid="{2B378CB6-6739-194E-9DD0-B01C4FE533FC}"/>
+  <autoFilter ref="A1:C105" xr:uid="{2B378CB6-6739-194E-9DD0-B01C4FE533FC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2310,7 +2288,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2324,7 +2302,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2340,7 +2318,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2354,16 +2332,16 @@
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>34</v>
@@ -2437,7 +2415,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2453,39 +2431,39 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>6</v>
@@ -2494,10 +2472,10 @@
         <v>101</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O5" s="7"/>
     </row>
@@ -2533,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" s="4">
         <v>3</v>
@@ -2545,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
